--- a/lab3/lab3.xlsx
+++ b/lab3/lab3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\studies\ММАД\Лабораторные\lab3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F57F1BB0-EA9D-4CEE-82F8-14EF0737B19A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D98E7E61-59DE-45CE-82D9-BE4C9795AEAB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>№ точки</t>
   </si>
@@ -178,17 +178,73 @@
     <t>Оценка ковариационной функции исходного ряда</t>
   </si>
   <si>
-    <t>Выб. средн. остатков:</t>
+    <t>Оценка ковариационной функции ряда остатков</t>
   </si>
   <si>
-    <t>Оценка ковариационной функции ряда остатков</t>
+    <t>Исходный ряд</t>
+  </si>
+  <si>
+    <t>Ряд остатков</t>
+  </si>
+  <si>
+    <t>Оценка семивариаграммы функции исходного ряда</t>
+  </si>
+  <si>
+    <t>Оценка семивариаграммы функции ряда остатков</t>
+  </si>
+  <si>
+    <t>Коэффициенты линейной модели семивариаграммы</t>
+  </si>
+  <si>
+    <t>а</t>
+  </si>
+  <si>
+    <t>с</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>Значения в точках модели для построения модели семивариаграммы</t>
+  </si>
+  <si>
+    <t>Аналитический вид модели</t>
+  </si>
+  <si>
+    <t>По виду графика, представляющего данные о мощности слоя в 20 точках, можно сделать вывод о явном наличии тренда, что подтверждается дальнейшей проверкой.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Получен коэффициент детерминации, очень близкий к единице, что свидетельствует о явном наличии тренда. Также проверку тренда можно осуществить с помощью других методов. К примеру, рассмотрим метод восходящих и нисходящих серий: очевидно, что мы будем иметь одну серию длины 19 (v(T) = 1, l(T) = 19), так как все значения ряда возрастают. Проверим неравенства:          v(T) = 1 &gt; 9.47, l(T) = 19 &lt; 5.  Как мы видим, ни одно из неравенств не выполняется, а при невыполнении хотя бы одного из них можно сделать вывод о наличии тренда. Следовательно, и проверка с помощью данного метода подтверждает наличие тренда. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Для определения зависимости между наблюдениями из ряда остатков воспользуемся понятием ранга корреляции. Ранг - значение t* такое, что γ(t*) = R(0). Наблюдения, накодящиеся друг от друга на расситоянии t &gt;= t*, являются некоррелированными. В случае ряда остатков  γ(t*) &gt; R(0) уже при t* = 1. Следовательно, можно сделать вывод о некоррелированности даже соседних наблюдений ряда остатков. </t>
+  </si>
+  <si>
+    <t>Так как выборочное среднее ряда остатков очень близко к нулю, коэффициент вариации не будет нести особого смысла, однако по остальным характеристикам и по виду графика ряда остатков можно сделать вывод о сильной неоднородности данных. Оценить же однородность данных исходного ряда можно с помощью коэффициента вариации: он составляет 50%, что также свидетельствует о неоднородности данных.</t>
+  </si>
+  <si>
+    <t>Выбор данной модели (линейной) был основан на визуальном методе. Коэффициенты модели были выбраны следующим образом: коэффициент c - порог, был выбран как значение оценки ковариационной функции R(0) (это же выборочная дисперсия), коэффициент а - ранг, значение, при котором семивариаграмма достигла порогового значения.</t>
+  </si>
+  <si>
+    <t>Как видно из графиков, время корреляции для исходного ряда куда больше, чем для ряда остатков. Если наблюдения из ряда остаков некоррелированы начиная с первого лага, то в исходных данных корреляция будет наблюдаться вплоть до восьмого лага. Следовательно, при исключении тренда наши данные отличаются куда меньшей зависимостью, чем при его присутствии.
+Также наличие тренда добавляет в формулы оценок дополнительные слагаемые. Если смотреть на оценку семивариаграммы, например, то для исходного ряда она возрастает из-за наличия этих слагаемых (т.к. тренд положительный), и к тому же достигает довольно больших значений по сравнению с оценкой для остатков (на 10-ом лаге значение оценки равно 1226 для исходного ряда и 1.05 для ряда остатков).
+Соответственно, тренд мешает увидеть реальную зависимость (или независимость) данных, и его нужно обязательно убирать при вычислении оценок.</t>
+  </si>
+  <si>
+    <t>Выполнили: Крученков Евгений Андреевич и Кендысь Алексей Максимович.</t>
+  </si>
+  <si>
+    <t>Лабораторная работа №3. Подбор модели семивариограммы. Вариант №1.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -248,6 +304,14 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -257,7 +321,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -306,11 +370,91 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -326,8 +470,86 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -338,26 +560,28 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -455,7 +679,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'lab3'!$B$1</c:f>
+              <c:f>'lab3'!$B$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -490,7 +714,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'lab3'!$A$2:$A$21</c:f>
+              <c:f>'lab3'!$A$6:$A$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -559,7 +783,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'lab3'!$B$2:$B$21</c:f>
+              <c:f>'lab3'!$B$6:$B$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -988,7 +1212,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.1238753386045687"/>
+          <c:y val="0.15495860662860036"/>
+          <c:w val="0.84872642319824709"/>
+          <c:h val="0.68500650247696737"/>
+        </c:manualLayout>
+      </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -997,7 +1231,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'lab3'!$B$1</c:f>
+              <c:f>'lab3'!$B$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1084,7 +1318,7 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>'lab3'!$A$2:$A$21</c:f>
+              <c:f>'lab3'!$A$6:$A$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -1153,7 +1387,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'lab3'!$B$2:$B$21</c:f>
+              <c:f>'lab3'!$B$6:$B$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -1591,7 +1825,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'lab3'!$E$1</c:f>
+              <c:f>'lab3'!$E$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1626,7 +1860,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'lab3'!$A$2:$A$21</c:f>
+              <c:f>'lab3'!$A$6:$A$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -1695,7 +1929,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'lab3'!$E$2:$E$21</c:f>
+              <c:f>'lab3'!$E$6:$E$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -2053,6 +2287,1658 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Оценка</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" baseline="0"/>
+              <a:t> и модель семивариаграммы</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.25379565927324799"/>
+          <c:y val="3.6939307844629198E-3"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="4.7499430200811779E-2"/>
+          <c:y val="7.8780490926309857E-2"/>
+          <c:w val="0.85725475319363909"/>
+          <c:h val="0.77065454307214865"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Оценка семивариаграммы</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'lab3'!$G$6:$G$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'lab3'!$K$6:$K$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2808915145005353</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.63629041274865905</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.2150556843235851</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.99672676168804886</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.3068931916256792</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.95655463847588595</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.97780204559983264</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.96306306178981183</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.4919058068959119</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.0527482050992067</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4915-42BE-BE63-D60AC3DC5E07}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Линейная модель семивариаграммы</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'lab3'!$Q$6:$S$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.78997903581521189</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'lab3'!$Q$7:$S$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0118774436090194</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0118774436090194</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4915-42BE-BE63-D60AC3DC5E07}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1723975551"/>
+        <c:axId val="1723975967"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1723975551"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>h</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1723975967"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1723975967"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="5000"/>
+                      <a:lumOff val="95000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="74000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="45000"/>
+                      <a:lumOff val="55000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="83000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="45000"/>
+                      <a:lumOff val="55000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="30000"/>
+                      <a:lumOff val="70000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="1"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1723975551"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.61678144963196013"/>
+          <c:y val="0.50517331240300956"/>
+          <c:w val="0.23686035119166596"/>
+          <c:h val="0.22974767899289331"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Оценки</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" baseline="0"/>
+              <a:t> функций исходного ряда</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Оценка семивариаграммы</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'lab3'!$G$6:$G$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'lab3'!$J$6:$J$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14.224473684210526</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50.854444444444439</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>114.49794117647059</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>199.86968749999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>308.16466666666662</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>441.57214285714286</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>599.54615384615386</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>780.40250000000015</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>998.09954545454525</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1226.1669999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0D0F-4407-B3D1-EE4C6E95313F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Оценка ковариационной функции</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'lab3'!$G$6:$G$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'lab3'!$H$6:$H$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>820.55340000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>726.47791578947363</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>633.6181555555554</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>526.39524705882354</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>418.65110000000004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>305.64693333333332</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>181.4726</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>48.861138461538452</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-89.970899999999986</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-251.70349090909093</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-405.61359999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0D0F-4407-B3D1-EE4C6E95313F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="78659760"/>
+        <c:axId val="78670160"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="78659760"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="78670160"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="78670160"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="78659760"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Оценки</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" baseline="0"/>
+              <a:t> функций ряда остатков</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Оценка семивариаграммы</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'lab3'!$G$6:$G$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'lab3'!$K$6:$K$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2808915145005353</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.63629041274865905</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.2150556843235851</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.99672676168804886</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.3068931916256792</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.95655463847588595</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.97780204559983264</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.96306306178981183</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.4919058068959119</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.0527482050992067</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3D03-498A-98B1-E49B246DD042}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Оценка ковариационной функции</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'lab3'!$G$6:$G$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'lab3'!$I$6:$I$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1.0118774436090194</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.28975833003561641</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.32444256066230898</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.22871275501890254</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.9561570750207007E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.31912967192417235</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.434444570071785E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.4093090012475083E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.10940174119509133</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.45351939366529853</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-4.0870761490187403E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3D03-498A-98B1-E49B246DD042}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="165657136"/>
+        <c:axId val="165650896"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="165657136"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="165650896"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="165650896"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="165657136"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2173,6 +4059,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
@@ -3682,27 +5688,1575 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>824619</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>601980</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>175260</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1219729</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>58208</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB5A951C-6BD6-4679-95C6-48676F91EE90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3722,23 +7276,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>213360</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>137160</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>84243</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>175260</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>123190</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>122343</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70DAD272-3DF1-4BA4-8359-7113CAE87219}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3760,23 +7314,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>144780</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>53340</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>1012614</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>85091</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>83820</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>189090</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>2682</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DD4F97F-A3AA-42D0-B1B8-F170C56FEBAD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3791,6 +7345,797 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>306160</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>555624</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>13608</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Диаграмма 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>55564</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1492249" cy="479683"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="7" name="TextBox 6">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="12533314" y="828675"/>
+              <a:ext cx="1492249" cy="479683"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" baseline="0"/>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="el-GR" sz="1200" baseline="0"/>
+                <a:t>γ</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1200" baseline="0"/>
+                <a:t>(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1200" baseline="0"/>
+                <a:t>h) </a:t>
+              </a:r>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:r>
+                    <a:rPr lang="el-GR" sz="1200" i="1" baseline="0">
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    </a:rPr>
+                    <m:t>=</m:t>
+                  </m:r>
+                  <m:d>
+                    <m:dPr>
+                      <m:begChr m:val="{"/>
+                      <m:endChr m:val=""/>
+                      <m:ctrlPr>
+                        <a:rPr lang="el-GR" sz="1200" i="1" baseline="0">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:dPr>
+                    <m:e>
+                      <m:eqArr>
+                        <m:eqArrPr>
+                          <m:ctrlPr>
+                            <a:rPr lang="el-GR" sz="1200" i="1" baseline="0">
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            </a:rPr>
+                          </m:ctrlPr>
+                        </m:eqArrPr>
+                        <m:e>
+                          <m:r>
+                            <a:rPr lang="en-US" sz="1200" b="0" i="1" baseline="0">
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            </a:rPr>
+                            <m:t>𝑐</m:t>
+                          </m:r>
+                          <m:f>
+                            <m:fPr>
+                              <m:ctrlPr>
+                                <a:rPr lang="en-US" sz="1200" b="0" i="1" baseline="0">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                              </m:ctrlPr>
+                            </m:fPr>
+                            <m:num>
+                              <m:r>
+                                <a:rPr lang="en-US" sz="1200" b="0" i="1" baseline="0">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>h</m:t>
+                              </m:r>
+                            </m:num>
+                            <m:den>
+                              <m:r>
+                                <a:rPr lang="en-US" sz="1200" b="0" i="1" baseline="0">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>𝑎</m:t>
+                              </m:r>
+                            </m:den>
+                          </m:f>
+                          <m:r>
+                            <a:rPr lang="en-US" sz="1200" b="0" i="1" baseline="0">
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            </a:rPr>
+                            <m:t>, 0≤</m:t>
+                          </m:r>
+                          <m:r>
+                            <a:rPr lang="en-US" sz="1200" b="0" i="1" baseline="0">
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            </a:rPr>
+                            <m:t>h</m:t>
+                          </m:r>
+                          <m:r>
+                            <a:rPr lang="en-US" sz="1200" b="0" i="1" baseline="0">
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            </a:rPr>
+                            <m:t>≤</m:t>
+                          </m:r>
+                          <m:r>
+                            <a:rPr lang="en-US" sz="1200" b="0" i="1" baseline="0">
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            </a:rPr>
+                            <m:t>𝑎</m:t>
+                          </m:r>
+                        </m:e>
+                        <m:e>
+                          <m:r>
+                            <a:rPr lang="en-US" sz="1200" b="0" i="1" baseline="0">
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            </a:rPr>
+                            <m:t>𝑐</m:t>
+                          </m:r>
+                          <m:r>
+                            <a:rPr lang="en-US" sz="1200" b="0" i="1" baseline="0">
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            </a:rPr>
+                            <m:t>, </m:t>
+                          </m:r>
+                          <m:r>
+                            <a:rPr lang="en-US" sz="1200" b="0" i="1" baseline="0">
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            </a:rPr>
+                            <m:t>h</m:t>
+                          </m:r>
+                          <m:r>
+                            <a:rPr lang="en-US" sz="1200" b="0" i="1" baseline="0">
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            </a:rPr>
+                            <m:t>&gt;</m:t>
+                          </m:r>
+                          <m:r>
+                            <a:rPr lang="en-US" sz="1200" b="0" i="1" baseline="0">
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            </a:rPr>
+                            <m:t>𝑎</m:t>
+                          </m:r>
+                        </m:e>
+                      </m:eqArr>
+                    </m:e>
+                  </m:d>
+                </m:oMath>
+              </a14:m>
+              <a:endParaRPr lang="ru-RU" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="7" name="TextBox 6"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="12533314" y="828675"/>
+              <a:ext cx="1492249" cy="479683"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" baseline="0"/>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="el-GR" sz="1200" baseline="0"/>
+                <a:t>γ</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1200" baseline="0"/>
+                <a:t>(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1200" baseline="0"/>
+                <a:t>h) </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="el-GR" sz="1200" i="0" baseline="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>={█(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1200" b="0" i="0" baseline="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑐 ℎ/𝑎, 0≤ℎ≤𝑎</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="el-GR" sz="1200" b="0" i="0" baseline="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>@</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1200" b="0" i="0" baseline="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑐, ℎ&gt;𝑎</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="el-GR" sz="1200" b="0" i="0" baseline="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>)┤</a:t>
+              </a:r>
+              <a:endParaRPr lang="ru-RU" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>118268</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>98425</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1451423" cy="368306"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="8" name="TextBox 7">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="12596018" y="1416050"/>
+              <a:ext cx="1451423" cy="368306"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1200" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑎</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1200" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>=</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1200" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑅</m:t>
+                    </m:r>
+                    <m:d>
+                      <m:dPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1200" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:dPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1200" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>0</m:t>
+                        </m:r>
+                      </m:e>
+                    </m:d>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1200" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>, </m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1200" b="0" i="1">
+                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1200" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑐</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1200" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>=</m:t>
+                    </m:r>
+                    <m:sSup>
+                      <m:sSupPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1200" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSupPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1200" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑡</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sup>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1200" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>∗</m:t>
+                        </m:r>
+                      </m:sup>
+                    </m:sSup>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1200" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>: </m:t>
+                    </m:r>
+                    <m:r>
+                      <m:rPr>
+                        <m:nor/>
+                      </m:rPr>
+                      <a:rPr lang="el-GR" sz="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>γ</m:t>
+                    </m:r>
+                    <m:d>
+                      <m:dPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1200" b="0" i="1" baseline="0">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:dPr>
+                      <m:e>
+                        <m:sSup>
+                          <m:sSupPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-US" sz="1200" b="0" i="1" baseline="0">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:sSupPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1200" b="0" i="1" baseline="0">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝑡</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:sup>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1200" b="0" i="1" baseline="0">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>∗</m:t>
+                            </m:r>
+                          </m:sup>
+                        </m:sSup>
+                      </m:e>
+                    </m:d>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1200" b="0" i="1" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>=</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1200" b="0" i="1" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>𝑅</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1200" b="0" i="1" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>(0)  </m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="ru-RU" sz="1200"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="8" name="TextBox 7"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="12596018" y="1416050"/>
+              <a:ext cx="1451423" cy="368306"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1200" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑎=𝑅(0), </a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1200" b="0" i="1">
+                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1200" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑐=𝑡^∗: </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="el-GR" sz="1200" b="0" i="0" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>"</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="el-GR" sz="1200" i="0" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>γ</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1200" b="0" i="0" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>" (𝑡^∗ )=𝑅(0)</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1200" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>  </a:t>
+              </a:r>
+              <a:endParaRPr lang="ru-RU" sz="1200"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>358321</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>34471</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>258535</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>56243</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Диаграмма 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>548820</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>34472</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>340177</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>56244</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Диаграмма 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4062,782 +8407,1472 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I46"/>
+  <dimension ref="A1:S67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L42" sqref="L42"/>
+    <sheetView tabSelected="1" topLeftCell="G40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" customWidth="1"/>
+    <col min="1" max="1" width="13.77734375" customWidth="1"/>
     <col min="2" max="2" width="12.33203125" customWidth="1"/>
     <col min="3" max="3" width="11.21875" customWidth="1"/>
     <col min="4" max="4" width="12" customWidth="1"/>
     <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.21875" customWidth="1"/>
     <col min="8" max="8" width="15.33203125" customWidth="1"/>
-    <col min="9" max="9" width="13.33203125" customWidth="1"/>
-    <col min="15" max="15" width="15.44140625" customWidth="1"/>
+    <col min="9" max="9" width="17.33203125" customWidth="1"/>
+    <col min="10" max="10" width="21.21875" customWidth="1"/>
+    <col min="11" max="11" width="19.5546875" customWidth="1"/>
+    <col min="15" max="15" width="23.109375" customWidth="1"/>
     <col min="16" max="16" width="10.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="58.8" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A1" s="48" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A2" s="48" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A3" s="48"/>
+    </row>
+    <row r="5" spans="1:19" ht="58.8" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D5" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="11"/>
-      <c r="G1" s="20" t="s">
+      <c r="F5" s="7"/>
+      <c r="G5" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="20" t="s">
+      <c r="H5" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="I1" s="20" t="s">
+      <c r="I5" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="J5" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="K5" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="M5" s="43" t="s">
+        <v>26</v>
+      </c>
+      <c r="N5" s="43"/>
+      <c r="O5" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="P5" s="43" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q5" s="43"/>
+      <c r="R5" s="43"/>
+      <c r="S5" s="43"/>
+    </row>
+    <row r="6" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
+        <v>1</v>
+      </c>
+      <c r="B6" s="3">
+        <v>8.1</v>
+      </c>
+      <c r="C6" s="3">
+        <f>$A$39*A6 + $B$39</f>
+        <v>9.2957142857142863</v>
+      </c>
+      <c r="D6" s="10">
+        <f t="shared" ref="D6:D25" si="0">(C6-$B$28)^2</f>
+        <v>2224.4698469387754</v>
+      </c>
+      <c r="E6" s="3">
+        <f>B6-C6</f>
+        <v>-1.1957142857142866</v>
+      </c>
+      <c r="F6" s="8"/>
+      <c r="G6" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="H6" s="3">
+        <f>SUMPRODUCT((INDEX($B$6:$B$25,G6+1):$B$25)-$B$28,($B$6:INDEX($B$6:$B$25,20 - G6))-$B$28)/($B$34 - G6)</f>
+        <v>820.55340000000001</v>
+      </c>
+      <c r="I6" s="3">
+        <f>SUMPRODUCT((INDEX($E$6:$E$25,G6+1):$E$25)-$C$28,($E$6:INDEX($E$6:$E$25,20 - G6))-$C$28)/($C$34 - G6)</f>
+        <v>1.0118774436090194</v>
+      </c>
+      <c r="J6" s="3">
+        <f>SUMPRODUCT((INDEX($B$6:$B$25,G6+1):$B$25)-($B$6:INDEX($B$6:$B$25,20 - G6)),(INDEX($B$6:$B$25,G6+1):$B$25)-($B$6:INDEX($B$6:$B$25,20 - G6)))/(2*($B$34 - G6))</f>
+        <v>0</v>
+      </c>
+      <c r="K6" s="3">
+        <f>SUMPRODUCT((INDEX($E$6:$E$25,G6+1):$E$25)-($E$6:INDEX($E$6:$E$25,20 - G6)),(INDEX($E$6:$E$25,G6+1):$E$25)-($E$6:INDEX($E$6:$E$25,20 - G6)))/(2*($B$34 - G6))</f>
+        <v>0</v>
+      </c>
+      <c r="M6" s="44" t="s">
+        <v>27</v>
+      </c>
+      <c r="N6" s="44" t="s">
+        <v>28</v>
+      </c>
+      <c r="O6" s="45"/>
+      <c r="P6" s="46" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q6" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="R6" s="3">
+        <f>M7</f>
+        <v>0.78997903581521189</v>
+      </c>
+      <c r="S6" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="3">
+        <v>2</v>
+      </c>
+      <c r="B7" s="3">
+        <v>15.8</v>
+      </c>
+      <c r="C7" s="3">
+        <f>$A$39*A7 + $B$39</f>
+        <v>14.260375939849625</v>
+      </c>
+      <c r="D7" s="10">
+        <f t="shared" si="0"/>
+        <v>1780.8082708180225</v>
+      </c>
+      <c r="E7" s="3">
+        <f t="shared" ref="E7:E25" si="1">B7-C7</f>
+        <v>1.5396240601503752</v>
+      </c>
+      <c r="F7" s="8"/>
+      <c r="G7" s="3">
+        <f>1</f>
+        <v>1</v>
+      </c>
+      <c r="H7" s="3">
+        <f>SUMPRODUCT((INDEX($B$6:$B$25,G7+1):$B$25)-$B$28,($B$6:INDEX($B$6:$B$25,20 - G7))-$B$28)/($B$34 - G7)</f>
+        <v>726.47791578947363</v>
+      </c>
+      <c r="I7" s="3">
+        <f>SUMPRODUCT((INDEX($E$6:$E$25,G7+1):$E$25)-$C$28,($E$6:INDEX($E$6:$E$25,20 - G7))-$C$28)/($C$34 - G7)</f>
+        <v>-0.28975833003561641</v>
+      </c>
+      <c r="J7" s="3">
+        <f>SUMPRODUCT((INDEX($B$6:$B$25,G7+1):$B$25)-($B$6:INDEX($B$6:$B$25,20 - G7)),(INDEX($B$6:$B$25,G7+1):$B$25)-($B$6:INDEX($B$6:$B$25,20 - G7)))/(2*($B$34 - G7))</f>
+        <v>14.224473684210526</v>
+      </c>
+      <c r="K7" s="3">
+        <f>SUMPRODUCT((INDEX($E$6:$E$25,G7+1):$E$25)-($E$6:INDEX($E$6:$E$25,20 - G7)),(INDEX($E$6:$E$25,G7+1):$E$25)-($E$6:INDEX($E$6:$E$25,20 - G7)))/(2*($B$34 - G7))</f>
+        <v>1.2808915145005353</v>
+      </c>
+      <c r="M7" s="3">
+        <f>I6/K7</f>
+        <v>0.78997903581521189</v>
+      </c>
+      <c r="N7" s="3">
+        <f>I6</f>
+        <v>1.0118774436090194</v>
+      </c>
+      <c r="O7" s="45"/>
+      <c r="P7" s="46" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q7" s="3">
+        <v>0</v>
+      </c>
+      <c r="R7" s="3">
+        <f>N7</f>
+        <v>1.0118774436090194</v>
+      </c>
+      <c r="S7" s="3">
+        <f>N7</f>
+        <v>1.0118774436090194</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="3">
+        <v>3</v>
+      </c>
+      <c r="B8" s="3">
+        <v>18.2</v>
+      </c>
+      <c r="C8" s="3">
+        <f t="shared" ref="C8:C25" si="2">$A$39*A8 + $B$39</f>
+        <v>19.225037593984965</v>
+      </c>
+      <c r="D8" s="10">
+        <f t="shared" si="0"/>
+        <v>1386.4424253773529</v>
+      </c>
+      <c r="E8" s="3">
+        <f t="shared" si="1"/>
+        <v>-1.0250375939849654</v>
+      </c>
+      <c r="F8" s="8"/>
+      <c r="G8" s="3">
+        <v>2</v>
+      </c>
+      <c r="H8" s="3">
+        <f>SUMPRODUCT((INDEX($B$6:$B$25,G8+1):$B$25)-$B$28,($B$6:INDEX($B$6:$B$25,20 - G8))-$B$28)/($B$34 - G8)</f>
+        <v>633.6181555555554</v>
+      </c>
+      <c r="I8" s="3">
+        <f>SUMPRODUCT((INDEX($E$6:$E$25,G8+1):$E$25)-$C$28,($E$6:INDEX($E$6:$E$25,20 - G8))-$C$28)/($C$34 - G8)</f>
+        <v>0.32444256066230898</v>
+      </c>
+      <c r="J8" s="3">
+        <f>SUMPRODUCT((INDEX($B$6:$B$25,G8+1):$B$25)-($B$6:INDEX($B$6:$B$25,20 - G8)),(INDEX($B$6:$B$25,G8+1):$B$25)-($B$6:INDEX($B$6:$B$25,20 - G8)))/(2*($B$34 - G8))</f>
+        <v>50.854444444444439</v>
+      </c>
+      <c r="K8" s="3">
+        <f>SUMPRODUCT((INDEX($E$6:$E$25,G8+1):$E$25)-($E$6:INDEX($E$6:$E$25,20 - G8)),(INDEX($E$6:$E$25,G8+1):$E$25)-($E$6:INDEX($E$6:$E$25,20 - G8)))/(2*($B$34 - G8))</f>
+        <v>0.63629041274865905</v>
+      </c>
+      <c r="M8" s="47" t="s">
+        <v>37</v>
+      </c>
+      <c r="N8" s="47"/>
+      <c r="O8" s="47"/>
+      <c r="P8" s="47"/>
+      <c r="Q8" s="47"/>
+      <c r="R8" s="47"/>
+      <c r="S8" s="47"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A9" s="3">
+        <v>4</v>
+      </c>
+      <c r="B9" s="3">
+        <v>25.4</v>
+      </c>
+      <c r="C9" s="3">
+        <f t="shared" si="2"/>
+        <v>24.189699248120302</v>
+      </c>
+      <c r="D9" s="10">
+        <f t="shared" si="0"/>
+        <v>1041.3723106167677</v>
+      </c>
+      <c r="E9" s="3">
+        <f t="shared" si="1"/>
+        <v>1.2103007518796964</v>
+      </c>
+      <c r="F9" s="8"/>
+      <c r="G9" s="3">
+        <v>3</v>
+      </c>
+      <c r="H9" s="3">
+        <f>SUMPRODUCT((INDEX($B$6:$B$25,G9+1):$B$25)-$B$28,($B$6:INDEX($B$6:$B$25,20 - G9))-$B$28)/($B$34 - G9)</f>
+        <v>526.39524705882354</v>
+      </c>
+      <c r="I9" s="3">
+        <f>SUMPRODUCT((INDEX($E$6:$E$25,G9+1):$E$25)-$C$28,($E$6:INDEX($E$6:$E$25,20 - G9))-$C$28)/($C$34 - G9)</f>
+        <v>-0.22871275501890254</v>
+      </c>
+      <c r="J9" s="3">
+        <f>SUMPRODUCT((INDEX($B$6:$B$25,G9+1):$B$25)-($B$6:INDEX($B$6:$B$25,20 - G9)),(INDEX($B$6:$B$25,G9+1):$B$25)-($B$6:INDEX($B$6:$B$25,20 - G9)))/(2*($B$34 - G9))</f>
+        <v>114.49794117647059</v>
+      </c>
+      <c r="K9" s="3">
+        <f>SUMPRODUCT((INDEX($E$6:$E$25,G9+1):$E$25)-($E$6:INDEX($E$6:$E$25,20 - G9)),(INDEX($E$6:$E$25,G9+1):$E$25)-($E$6:INDEX($E$6:$E$25,20 - G9)))/(2*($B$34 - G9))</f>
+        <v>1.2150556843235851</v>
+      </c>
+      <c r="M9" s="47"/>
+      <c r="N9" s="47"/>
+      <c r="O9" s="47"/>
+      <c r="P9" s="47"/>
+      <c r="Q9" s="47"/>
+      <c r="R9" s="47"/>
+      <c r="S9" s="47"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A10" s="3">
+        <v>5</v>
+      </c>
+      <c r="B10" s="3">
+        <v>29.9</v>
+      </c>
+      <c r="C10" s="3">
+        <f t="shared" si="2"/>
+        <v>29.15436090225564</v>
+      </c>
+      <c r="D10" s="10">
+        <f t="shared" si="0"/>
+        <v>745.5979265362655</v>
+      </c>
+      <c r="E10" s="3">
+        <f t="shared" si="1"/>
+        <v>0.74563909774435899</v>
+      </c>
+      <c r="F10" s="8"/>
+      <c r="G10" s="3">
+        <v>4</v>
+      </c>
+      <c r="H10" s="3">
+        <f>SUMPRODUCT((INDEX($B$6:$B$25,G10+1):$B$25)-$B$28,($B$6:INDEX($B$6:$B$25,20 - G10))-$B$28)/($B$34 - G10)</f>
+        <v>418.65110000000004</v>
+      </c>
+      <c r="I10" s="3">
+        <f>SUMPRODUCT((INDEX($E$6:$E$25,G10+1):$E$25)-$C$28,($E$6:INDEX($E$6:$E$25,20 - G10))-$C$28)/($C$34 - G10)</f>
+        <v>4.9561570750207007E-3</v>
+      </c>
+      <c r="J10" s="3">
+        <f>SUMPRODUCT((INDEX($B$6:$B$25,G10+1):$B$25)-($B$6:INDEX($B$6:$B$25,20 - G10)),(INDEX($B$6:$B$25,G10+1):$B$25)-($B$6:INDEX($B$6:$B$25,20 - G10)))/(2*($B$34 - G10))</f>
+        <v>199.86968749999997</v>
+      </c>
+      <c r="K10" s="3">
+        <f>SUMPRODUCT((INDEX($E$6:$E$25,G10+1):$E$25)-($E$6:INDEX($E$6:$E$25,20 - G10)),(INDEX($E$6:$E$25,G10+1):$E$25)-($E$6:INDEX($E$6:$E$25,20 - G10)))/(2*($B$34 - G10))</f>
+        <v>0.99672676168804886</v>
+      </c>
+      <c r="M10" s="47"/>
+      <c r="N10" s="47"/>
+      <c r="O10" s="47"/>
+      <c r="P10" s="47"/>
+      <c r="Q10" s="47"/>
+      <c r="R10" s="47"/>
+      <c r="S10" s="47"/>
+    </row>
+    <row r="11" spans="1:19" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="3">
+        <v>6</v>
+      </c>
+      <c r="B11" s="3">
+        <v>35.200000000000003</v>
+      </c>
+      <c r="C11" s="3">
+        <f t="shared" si="2"/>
+        <v>34.119022556390981</v>
+      </c>
+      <c r="D11" s="10">
+        <f t="shared" si="0"/>
+        <v>499.11927313584704</v>
+      </c>
+      <c r="E11" s="3">
+        <f t="shared" si="1"/>
+        <v>1.0809774436090223</v>
+      </c>
+      <c r="F11" s="8"/>
+      <c r="G11" s="3">
+        <v>5</v>
+      </c>
+      <c r="H11" s="3">
+        <f>SUMPRODUCT((INDEX($B$6:$B$25,G11+1):$B$25)-$B$28,($B$6:INDEX($B$6:$B$25,20 - G11))-$B$28)/($B$34 - G11)</f>
+        <v>305.64693333333332</v>
+      </c>
+      <c r="I11" s="3">
+        <f>SUMPRODUCT((INDEX($E$6:$E$25,G11+1):$E$25)-$C$28,($E$6:INDEX($E$6:$E$25,20 - G11))-$C$28)/($C$34 - G11)</f>
+        <v>-0.31912967192417235</v>
+      </c>
+      <c r="J11" s="3">
+        <f>SUMPRODUCT((INDEX($B$6:$B$25,G11+1):$B$25)-($B$6:INDEX($B$6:$B$25,20 - G11)),(INDEX($B$6:$B$25,G11+1):$B$25)-($B$6:INDEX($B$6:$B$25,20 - G11)))/(2*($B$34 - G11))</f>
+        <v>308.16466666666662</v>
+      </c>
+      <c r="K11" s="3">
+        <f>SUMPRODUCT((INDEX($E$6:$E$25,G11+1):$E$25)-($E$6:INDEX($E$6:$E$25,20 - G11)),(INDEX($E$6:$E$25,G11+1):$E$25)-($E$6:INDEX($E$6:$E$25,20 - G11)))/(2*($B$34 - G11))</f>
+        <v>1.3068931916256792</v>
+      </c>
+      <c r="M11" s="47"/>
+      <c r="N11" s="47"/>
+      <c r="O11" s="47"/>
+      <c r="P11" s="47"/>
+      <c r="Q11" s="47"/>
+      <c r="R11" s="47"/>
+      <c r="S11" s="47"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A12" s="3">
+        <v>7</v>
+      </c>
+      <c r="B12" s="3">
+        <v>38.4</v>
+      </c>
+      <c r="C12" s="3">
+        <f t="shared" si="2"/>
+        <v>39.083684210526314</v>
+      </c>
+      <c r="D12" s="10">
+        <f t="shared" si="0"/>
+        <v>301.93635041551255</v>
+      </c>
+      <c r="E12" s="3">
+        <f t="shared" si="1"/>
+        <v>-0.68368421052631589</v>
+      </c>
+      <c r="F12" s="8"/>
+      <c r="G12" s="3">
+        <v>6</v>
+      </c>
+      <c r="H12" s="3">
+        <f>SUMPRODUCT((INDEX($B$6:$B$25,G12+1):$B$25)-$B$28,($B$6:INDEX($B$6:$B$25,20 - G12))-$B$28)/($B$34 - G12)</f>
+        <v>181.4726</v>
+      </c>
+      <c r="I12" s="3">
+        <f>SUMPRODUCT((INDEX($E$6:$E$25,G12+1):$E$25)-$C$28,($E$6:INDEX($E$6:$E$25,20 - G12))-$C$28)/($C$34 - G12)</f>
+        <v>5.434444570071785E-2</v>
+      </c>
+      <c r="J12" s="3">
+        <f>SUMPRODUCT((INDEX($B$6:$B$25,G12+1):$B$25)-($B$6:INDEX($B$6:$B$25,20 - G12)),(INDEX($B$6:$B$25,G12+1):$B$25)-($B$6:INDEX($B$6:$B$25,20 - G12)))/(2*($B$34 - G12))</f>
+        <v>441.57214285714286</v>
+      </c>
+      <c r="K12" s="3">
+        <f>SUMPRODUCT((INDEX($E$6:$E$25,G12+1):$E$25)-($E$6:INDEX($E$6:$E$25,20 - G12)),(INDEX($E$6:$E$25,G12+1):$E$25)-($E$6:INDEX($E$6:$E$25,20 - G12)))/(2*($B$34 - G12))</f>
+        <v>0.95655463847588595</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A13" s="3">
+        <v>8</v>
+      </c>
+      <c r="B13" s="3">
+        <v>44.8</v>
+      </c>
+      <c r="C13" s="3">
+        <f t="shared" si="2"/>
+        <v>44.048345864661655</v>
+      </c>
+      <c r="D13" s="10">
+        <f t="shared" si="0"/>
+        <v>154.04915837526144</v>
+      </c>
+      <c r="E13" s="3">
+        <f t="shared" si="1"/>
+        <v>0.75165413533834169</v>
+      </c>
+      <c r="F13" s="8"/>
+      <c r="G13" s="3">
+        <v>7</v>
+      </c>
+      <c r="H13" s="3">
+        <f>SUMPRODUCT((INDEX($B$6:$B$25,G13+1):$B$25)-$B$28,($B$6:INDEX($B$6:$B$25,20 - G13))-$B$28)/($B$34 - G13)</f>
+        <v>48.861138461538452</v>
+      </c>
+      <c r="I13" s="3">
+        <f>SUMPRODUCT((INDEX($E$6:$E$25,G13+1):$E$25)-$C$28,($E$6:INDEX($E$6:$E$25,20 - G13))-$C$28)/($C$34 - G13)</f>
+        <v>3.4093090012475083E-2</v>
+      </c>
+      <c r="J13" s="3">
+        <f>SUMPRODUCT((INDEX($B$6:$B$25,G13+1):$B$25)-($B$6:INDEX($B$6:$B$25,20 - G13)),(INDEX($B$6:$B$25,G13+1):$B$25)-($B$6:INDEX($B$6:$B$25,20 - G13)))/(2*($B$34 - G13))</f>
+        <v>599.54615384615386</v>
+      </c>
+      <c r="K13" s="3">
+        <f>SUMPRODUCT((INDEX($E$6:$E$25,G13+1):$E$25)-($E$6:INDEX($E$6:$E$25,20 - G13)),(INDEX($E$6:$E$25,G13+1):$E$25)-($E$6:INDEX($E$6:$E$25,20 - G13)))/(2*($B$34 - G13))</f>
+        <v>0.97780204559983264</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A14" s="3">
+        <v>9</v>
+      </c>
+      <c r="B14" s="3">
+        <v>47.8</v>
+      </c>
+      <c r="C14" s="3">
+        <f t="shared" si="2"/>
+        <v>49.013007518796996</v>
+      </c>
+      <c r="D14" s="10">
+        <f t="shared" si="0"/>
+        <v>55.457697015094077</v>
+      </c>
+      <c r="E14" s="3">
+        <f t="shared" si="1"/>
+        <v>-1.2130075187969993</v>
+      </c>
+      <c r="F14" s="8"/>
+      <c r="G14" s="3">
+        <v>8</v>
+      </c>
+      <c r="H14" s="3">
+        <f>SUMPRODUCT((INDEX($B$6:$B$25,G14+1):$B$25)-$B$28,($B$6:INDEX($B$6:$B$25,20 - G14))-$B$28)/($B$34 - G14)</f>
+        <v>-89.970899999999986</v>
+      </c>
+      <c r="I14" s="3">
+        <f>SUMPRODUCT((INDEX($E$6:$E$25,G14+1):$E$25)-$C$28,($E$6:INDEX($E$6:$E$25,20 - G14))-$C$28)/($C$34 - G14)</f>
+        <v>0.10940174119509133</v>
+      </c>
+      <c r="J14" s="3">
+        <f>SUMPRODUCT((INDEX($B$6:$B$25,G14+1):$B$25)-($B$6:INDEX($B$6:$B$25,20 - G14)),(INDEX($B$6:$B$25,G14+1):$B$25)-($B$6:INDEX($B$6:$B$25,20 - G14)))/(2*($B$34 - G14))</f>
+        <v>780.40250000000015</v>
+      </c>
+      <c r="K14" s="3">
+        <f>SUMPRODUCT((INDEX($E$6:$E$25,G14+1):$E$25)-($E$6:INDEX($E$6:$E$25,20 - G14)),(INDEX($E$6:$E$25,G14+1):$E$25)-($E$6:INDEX($E$6:$E$25,20 - G14)))/(2*($B$34 - G14))</f>
+        <v>0.96306306178981183</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A15" s="3">
+        <v>10</v>
+      </c>
+      <c r="B15" s="3">
+        <v>53.5</v>
+      </c>
+      <c r="C15" s="3">
+        <f t="shared" si="2"/>
+        <v>53.97766917293233</v>
+      </c>
+      <c r="D15" s="10">
+        <f t="shared" si="0"/>
+        <v>6.1619663350104652</v>
+      </c>
+      <c r="E15" s="3">
+        <f t="shared" si="1"/>
+        <v>-0.47766917293233035</v>
+      </c>
+      <c r="F15" s="8"/>
+      <c r="G15" s="3">
+        <v>9</v>
+      </c>
+      <c r="H15" s="3">
+        <f>SUMPRODUCT((INDEX($B$6:$B$25,G15+1):$B$25)-$B$28,($B$6:INDEX($B$6:$B$25,20 - G15))-$B$28)/($B$34 - G15)</f>
+        <v>-251.70349090909093</v>
+      </c>
+      <c r="I15" s="3">
+        <f>SUMPRODUCT((INDEX($E$6:$E$25,G15+1):$E$25)-$C$28,($E$6:INDEX($E$6:$E$25,20 - G15))-$C$28)/($C$34 - G15)</f>
+        <v>-0.45351939366529853</v>
+      </c>
+      <c r="J15" s="3">
+        <f>SUMPRODUCT((INDEX($B$6:$B$25,G15+1):$B$25)-($B$6:INDEX($B$6:$B$25,20 - G15)),(INDEX($B$6:$B$25,G15+1):$B$25)-($B$6:INDEX($B$6:$B$25,20 - G15)))/(2*($B$34 - G15))</f>
+        <v>998.09954545454525</v>
+      </c>
+      <c r="K15" s="3">
+        <f>SUMPRODUCT((INDEX($E$6:$E$25,G15+1):$E$25)-($E$6:INDEX($E$6:$E$25,20 - G15)),(INDEX($E$6:$E$25,G15+1):$E$25)-($E$6:INDEX($E$6:$E$25,20 - G15)))/(2*($B$34 - G15))</f>
+        <v>1.4919058068959119</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A16" s="3">
+        <v>11</v>
+      </c>
+      <c r="B16" s="3">
+        <v>57.4</v>
+      </c>
+      <c r="C16" s="3">
+        <f t="shared" si="2"/>
+        <v>58.942330827067671</v>
+      </c>
+      <c r="D16" s="10">
+        <f t="shared" si="0"/>
+        <v>6.1619663350104652</v>
+      </c>
+      <c r="E16" s="3">
+        <f t="shared" si="1"/>
+        <v>-1.5423308270676728</v>
+      </c>
+      <c r="F16" s="8"/>
+      <c r="G16" s="3">
+        <v>10</v>
+      </c>
+      <c r="H16" s="3">
+        <f>SUMPRODUCT((INDEX($B$6:$B$25,G16+1):$B$25)-$B$28,($B$6:INDEX($B$6:$B$25,20 - G16))-$B$28)/($B$34 - G16)</f>
+        <v>-405.61359999999996</v>
+      </c>
+      <c r="I16" s="3">
+        <f>SUMPRODUCT((INDEX($E$6:$E$25,G16+1):$E$25)-$C$28,($E$6:INDEX($E$6:$E$25,20 - G16))-$C$28)/($C$34 - G16)</f>
+        <v>-4.0870761490187403E-2</v>
+      </c>
+      <c r="J16" s="3">
+        <f>SUMPRODUCT((INDEX($B$6:$B$25,G16+1):$B$25)-($B$6:INDEX($B$6:$B$25,20 - G16)),(INDEX($B$6:$B$25,G16+1):$B$25)-($B$6:INDEX($B$6:$B$25,20 - G16)))/(2*($B$34 - G16))</f>
+        <v>1226.1669999999999</v>
+      </c>
+      <c r="K16" s="3">
+        <f>SUMPRODUCT((INDEX($E$6:$E$25,G16+1):$E$25)-($E$6:INDEX($E$6:$E$25,20 - G16)),(INDEX($E$6:$E$25,G16+1):$E$25)-($E$6:INDEX($E$6:$E$25,20 - G16)))/(2*($B$34 - G16))</f>
+        <v>1.0527482050992067</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A17" s="3">
+        <v>12</v>
+      </c>
+      <c r="B17" s="3">
+        <v>65.099999999999994</v>
+      </c>
+      <c r="C17" s="3">
+        <f t="shared" si="2"/>
+        <v>63.906992481203012</v>
+      </c>
+      <c r="D17" s="10">
+        <f t="shared" si="0"/>
+        <v>55.457697015094183</v>
+      </c>
+      <c r="E17" s="3">
+        <f t="shared" si="1"/>
+        <v>1.193007518796982</v>
+      </c>
+      <c r="F17" s="8"/>
+      <c r="G17" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="H17" s="30"/>
+      <c r="I17" s="30"/>
+      <c r="J17" s="30"/>
+      <c r="K17" s="31"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A18" s="3">
+        <v>13</v>
+      </c>
+      <c r="B18" s="3">
+        <v>68.8</v>
+      </c>
+      <c r="C18" s="3">
+        <f t="shared" si="2"/>
+        <v>68.87165413533836</v>
+      </c>
+      <c r="D18" s="10">
+        <f t="shared" si="0"/>
+        <v>154.04915837526181</v>
+      </c>
+      <c r="E18" s="3">
+        <f t="shared" si="1"/>
+        <v>-7.165413533836329E-2</v>
+      </c>
+      <c r="F18" s="8"/>
+      <c r="G18" s="32"/>
+      <c r="H18" s="33"/>
+      <c r="I18" s="33"/>
+      <c r="J18" s="33"/>
+      <c r="K18" s="34"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A19" s="3">
+        <v>14</v>
+      </c>
+      <c r="B19" s="3">
+        <v>72.599999999999994</v>
+      </c>
+      <c r="C19" s="3">
+        <f t="shared" si="2"/>
+        <v>73.836315789473673</v>
+      </c>
+      <c r="D19" s="10">
+        <f t="shared" si="0"/>
+        <v>301.93635041551204</v>
+      </c>
+      <c r="E19" s="3">
+        <f t="shared" si="1"/>
+        <v>-1.2363157894736787</v>
+      </c>
+      <c r="F19" s="8"/>
+      <c r="G19" s="32"/>
+      <c r="H19" s="33"/>
+      <c r="I19" s="33"/>
+      <c r="J19" s="33"/>
+      <c r="K19" s="34"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A20" s="3">
+        <v>15</v>
+      </c>
+      <c r="B20" s="3">
+        <v>79.2</v>
+      </c>
+      <c r="C20" s="3">
+        <f t="shared" si="2"/>
+        <v>78.800977443609014</v>
+      </c>
+      <c r="D20" s="10">
+        <f t="shared" si="0"/>
+        <v>499.1192731358467</v>
+      </c>
+      <c r="E20" s="3">
+        <f t="shared" si="1"/>
+        <v>0.39902255639098883</v>
+      </c>
+      <c r="F20" s="8"/>
+      <c r="G20" s="32"/>
+      <c r="H20" s="33"/>
+      <c r="I20" s="33"/>
+      <c r="J20" s="33"/>
+      <c r="K20" s="34"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A21" s="3">
+        <v>16</v>
+      </c>
+      <c r="B21" s="3">
+        <v>82.4</v>
+      </c>
+      <c r="C21" s="3">
+        <f t="shared" si="2"/>
+        <v>83.765639097744355</v>
+      </c>
+      <c r="D21" s="10">
+        <f t="shared" si="0"/>
+        <v>745.59792653626516</v>
+      </c>
+      <c r="E21" s="3">
+        <f t="shared" si="1"/>
+        <v>-1.3656390977443493</v>
+      </c>
+      <c r="F21" s="8"/>
+      <c r="G21" s="32"/>
+      <c r="H21" s="33"/>
+      <c r="I21" s="33"/>
+      <c r="J21" s="33"/>
+      <c r="K21" s="34"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A22" s="3">
+        <v>17</v>
+      </c>
+      <c r="B22" s="3">
+        <v>88.6</v>
+      </c>
+      <c r="C22" s="3">
+        <f t="shared" si="2"/>
+        <v>88.730300751879696</v>
+      </c>
+      <c r="D22" s="10">
+        <f t="shared" si="0"/>
+        <v>1041.3723106167672</v>
+      </c>
+      <c r="E22" s="3">
+        <f t="shared" si="1"/>
+        <v>-0.13030075187970169</v>
+      </c>
+      <c r="F22" s="8"/>
+      <c r="G22" s="32"/>
+      <c r="H22" s="33"/>
+      <c r="I22" s="33"/>
+      <c r="J22" s="33"/>
+      <c r="K22" s="34"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A23" s="3">
+        <v>18</v>
+      </c>
+      <c r="B23" s="3">
+        <v>93.7</v>
+      </c>
+      <c r="C23" s="3">
+        <f t="shared" si="2"/>
+        <v>93.694962406015037</v>
+      </c>
+      <c r="D23" s="10">
+        <f t="shared" si="0"/>
+        <v>1386.4424253773529</v>
+      </c>
+      <c r="E23" s="3">
+        <f t="shared" si="1"/>
+        <v>5.037593984965838E-3</v>
+      </c>
+      <c r="F23" s="8"/>
+      <c r="G23" s="32"/>
+      <c r="H23" s="33"/>
+      <c r="I23" s="33"/>
+      <c r="J23" s="33"/>
+      <c r="K23" s="34"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A24" s="3">
+        <v>19</v>
+      </c>
+      <c r="B24" s="3">
+        <v>99.5</v>
+      </c>
+      <c r="C24" s="3">
+        <f t="shared" si="2"/>
+        <v>98.659624060150378</v>
+      </c>
+      <c r="D24" s="10">
+        <f t="shared" si="0"/>
+        <v>1780.8082708180225</v>
+      </c>
+      <c r="E24" s="3">
+        <f t="shared" si="1"/>
+        <v>0.840375939849622</v>
+      </c>
+      <c r="F24" s="8"/>
+      <c r="G24" s="32"/>
+      <c r="H24" s="33"/>
+      <c r="I24" s="33"/>
+      <c r="J24" s="33"/>
+      <c r="K24" s="34"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A25" s="3">
+        <v>20</v>
+      </c>
+      <c r="B25" s="3">
+        <v>104.8</v>
+      </c>
+      <c r="C25" s="3">
+        <f t="shared" si="2"/>
+        <v>103.62428571428572</v>
+      </c>
+      <c r="D25" s="10">
+        <f t="shared" si="0"/>
+        <v>2224.4698469387758</v>
+      </c>
+      <c r="E25" s="3">
+        <f t="shared" si="1"/>
+        <v>1.1757142857142782</v>
+      </c>
+      <c r="F25" s="8"/>
+      <c r="G25" s="35"/>
+      <c r="H25" s="36"/>
+      <c r="I25" s="36"/>
+      <c r="J25" s="36"/>
+      <c r="K25" s="37"/>
+    </row>
+    <row r="26" spans="1:14" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="8"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="17"/>
+    </row>
+    <row r="27" spans="1:14" ht="33.450000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B27" s="15" t="s">
         <v>22</v>
       </c>
+      <c r="C27" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D27" s="19"/>
+      <c r="E27" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="F27" s="30"/>
+      <c r="G27" s="31"/>
+      <c r="J27" s="18"/>
+      <c r="K27" s="18"/>
+      <c r="L27" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="M27" s="30"/>
+      <c r="N27" s="31"/>
     </row>
-    <row r="2" spans="1:9" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3">
+    <row r="28" spans="1:14" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B28" s="6">
+        <f>AVERAGE(B6:B25)</f>
+        <v>56.46</v>
+      </c>
+      <c r="C28" s="3">
+        <f>AVERAGE(E6:E25)</f>
+        <v>-1.5987211554602255E-15</v>
+      </c>
+      <c r="D28" s="19"/>
+      <c r="E28" s="32"/>
+      <c r="F28" s="33"/>
+      <c r="G28" s="34"/>
+      <c r="J28" s="18"/>
+      <c r="K28" s="18"/>
+      <c r="L28" s="32"/>
+      <c r="M28" s="33"/>
+      <c r="N28" s="34"/>
+    </row>
+    <row r="29" spans="1:14" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B29" s="6">
+        <f>B30^2</f>
+        <v>820.55339999999978</v>
+      </c>
+      <c r="C29" s="3">
+        <f>C30^2</f>
+        <v>1.0118774436090197</v>
+      </c>
+      <c r="D29" s="19"/>
+      <c r="E29" s="32"/>
+      <c r="F29" s="33"/>
+      <c r="G29" s="34"/>
+      <c r="J29" s="18"/>
+      <c r="K29" s="18"/>
+      <c r="L29" s="32"/>
+      <c r="M29" s="33"/>
+      <c r="N29" s="34"/>
+    </row>
+    <row r="30" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B30" s="6">
+        <f>_xlfn.STDEV.P(B6:B25)</f>
+        <v>28.64530327994451</v>
+      </c>
+      <c r="C30" s="3">
+        <f>_xlfn.STDEV.P(E6:E25)</f>
+        <v>1.005921191549825</v>
+      </c>
+      <c r="D30" s="19"/>
+      <c r="E30" s="32"/>
+      <c r="F30" s="33"/>
+      <c r="G30" s="34"/>
+      <c r="J30" s="18"/>
+      <c r="K30" s="18"/>
+      <c r="L30" s="32"/>
+      <c r="M30" s="33"/>
+      <c r="N30" s="34"/>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A31" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B31" s="6">
         <v>8.1</v>
       </c>
-      <c r="C2" s="3">
-        <f>$A$35*A2 + $B$35</f>
-        <v>9.2957142857142863</v>
-      </c>
-      <c r="D2" s="15">
-        <f>(C2-$B$24)^2</f>
-        <v>2224.4698469387754</v>
-      </c>
-      <c r="E2" s="3">
-        <f>B2-C2</f>
-        <v>-1.1957142857142866</v>
-      </c>
-      <c r="F2" s="12"/>
-      <c r="G2" s="3">
-        <v>0</v>
-      </c>
-      <c r="H2" s="3">
-        <f>SUMPRODUCT(B2:B21 - $B$24, B2:B21 - $B$24) / ($B$30 - G2)</f>
-        <v>820.55340000000001</v>
-      </c>
-      <c r="I2" s="3">
-        <f>SUMPRODUCT(E2:E21 - $E$22, E2:E21 - $E$22) / ($B$30 - G2)</f>
-        <v>1.0118774436090194</v>
-      </c>
+      <c r="C31" s="3">
+        <f>MIN(E6:E25)</f>
+        <v>-1.5423308270676728</v>
+      </c>
+      <c r="D31" s="19"/>
+      <c r="E31" s="32"/>
+      <c r="F31" s="33"/>
+      <c r="G31" s="34"/>
+      <c r="J31" s="18"/>
+      <c r="K31" s="18"/>
+      <c r="L31" s="32"/>
+      <c r="M31" s="33"/>
+      <c r="N31" s="34"/>
     </row>
-    <row r="3" spans="1:9" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="3">
-        <v>15.8</v>
-      </c>
-      <c r="C3" s="3">
-        <f>$A$35*A3 + $B$35</f>
-        <v>14.260375939849625</v>
-      </c>
-      <c r="D3" s="15">
-        <f>(C3-$B$24)^2</f>
-        <v>1780.8082708180225</v>
-      </c>
-      <c r="E3" s="3">
-        <f t="shared" ref="E3:E21" si="0">B3-C3</f>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A32" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B32" s="6">
+        <v>104.8</v>
+      </c>
+      <c r="C32" s="3">
+        <f>MAX(E6:E25)</f>
         <v>1.5396240601503752</v>
       </c>
-      <c r="F3" s="12"/>
-      <c r="G3" s="3">
-        <v>1</v>
-      </c>
-      <c r="H3" s="3">
-        <f>SUMPRODUCT(B3:B21 - $B$24, B2:B20 - $B$24) / ($B$30 - G3)</f>
-        <v>726.47791578947363</v>
-      </c>
-      <c r="I3" s="3">
-        <f>SUMPRODUCT(E3:E21 - $E$22, E2:E20 - $E$22) / ($B$30 - G3)</f>
-        <v>-0.28975833003561641</v>
-      </c>
+      <c r="D32" s="19"/>
+      <c r="E32" s="32"/>
+      <c r="F32" s="33"/>
+      <c r="G32" s="34"/>
+      <c r="J32" s="18"/>
+      <c r="K32" s="18"/>
+      <c r="L32" s="32"/>
+      <c r="M32" s="33"/>
+      <c r="N32" s="34"/>
     </row>
-    <row r="4" spans="1:9" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="3">
-        <v>3</v>
-      </c>
-      <c r="B4" s="3">
-        <v>18.2</v>
-      </c>
-      <c r="C4" s="3">
-        <f t="shared" ref="C4:C21" si="1">$A$35*A4 + $B$35</f>
-        <v>19.225037593984965</v>
-      </c>
-      <c r="D4" s="15">
-        <f>(C4-$B$24)^2</f>
-        <v>1386.4424253773529</v>
-      </c>
-      <c r="E4" s="3">
-        <f t="shared" si="0"/>
-        <v>-1.0250375939849654</v>
-      </c>
-      <c r="F4" s="12"/>
-      <c r="G4" s="3">
-        <v>2</v>
-      </c>
-      <c r="H4" s="3">
-        <f>SUMPRODUCT(B4:B21 - $B$24, B2:B19 - $B$24) / ($B$30 - G4)</f>
-        <v>633.6181555555554</v>
-      </c>
-      <c r="I4" s="3">
-        <f>SUMPRODUCT(E4:E21 - $E$22, E2:E19 - $E$22) / ($B$30 - G4)</f>
-        <v>0.32444256066230898</v>
-      </c>
+    <row r="33" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B33" s="6">
+        <f>B30/B28</f>
+        <v>0.50735570811095487</v>
+      </c>
+      <c r="C33" s="3">
+        <f>C30/C28</f>
+        <v>-629203653253871.75</v>
+      </c>
+      <c r="D33" s="19"/>
+      <c r="E33" s="32"/>
+      <c r="F33" s="33"/>
+      <c r="G33" s="34"/>
+      <c r="J33" s="18"/>
+      <c r="K33" s="18"/>
+      <c r="L33" s="32"/>
+      <c r="M33" s="33"/>
+      <c r="N33" s="34"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="3">
-        <v>4</v>
-      </c>
-      <c r="B5" s="3">
-        <v>25.4</v>
-      </c>
-      <c r="C5" s="3">
-        <f t="shared" si="1"/>
-        <v>24.189699248120302</v>
-      </c>
-      <c r="D5" s="15">
-        <f>(C5-$B$24)^2</f>
-        <v>1041.3723106167677</v>
-      </c>
-      <c r="E5" s="3">
-        <f t="shared" si="0"/>
-        <v>1.2103007518796964</v>
-      </c>
-      <c r="F5" s="12"/>
-      <c r="G5" s="3">
-        <v>3</v>
-      </c>
-      <c r="H5" s="3">
-        <f>SUMPRODUCT(B5:B21 - $B$24, B2:B18 - $B$24) / ($B$30 - G5)</f>
-        <v>526.39524705882354</v>
-      </c>
-      <c r="I5" s="3">
-        <f>SUMPRODUCT(E5:E21 - $E$22, E2:E18 - $E$22) / ($B$30 - G5)</f>
-        <v>-0.22871275501890254</v>
-      </c>
+    <row r="34" spans="1:19" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B34" s="6">
+        <v>20</v>
+      </c>
+      <c r="C34" s="3">
+        <f>20</f>
+        <v>20</v>
+      </c>
+      <c r="D34" s="19"/>
+      <c r="E34" s="35"/>
+      <c r="F34" s="36"/>
+      <c r="G34" s="37"/>
+      <c r="J34" s="18"/>
+      <c r="K34" s="18"/>
+      <c r="L34" s="35"/>
+      <c r="M34" s="36"/>
+      <c r="N34" s="37"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="3">
-        <v>5</v>
-      </c>
-      <c r="B6" s="3">
-        <v>29.9</v>
-      </c>
-      <c r="C6" s="3">
-        <f t="shared" si="1"/>
-        <v>29.15436090225564</v>
-      </c>
-      <c r="D6" s="15">
-        <f>(C6-$B$24)^2</f>
-        <v>745.5979265362655</v>
-      </c>
-      <c r="E6" s="3">
-        <f t="shared" si="0"/>
-        <v>0.74563909774435899</v>
-      </c>
-      <c r="F6" s="12"/>
-      <c r="G6" s="3">
-        <v>4</v>
-      </c>
-      <c r="H6" s="3">
-        <f>SUMPRODUCT(B6:B21 - $B$24, B2:B17 - $B$24) / ($B$30 - G6)</f>
-        <v>418.65110000000004</v>
-      </c>
-      <c r="I6" s="3">
-        <f>SUMPRODUCT(E6:E21 - $E$22, E2:E17 - $E$22) / ($B$30 - G6)</f>
-        <v>4.9561570750207007E-3</v>
-      </c>
+    <row r="35" spans="1:19" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="11"/>
+      <c r="B35" s="12"/>
+      <c r="D35" s="8"/>
     </row>
-    <row r="7" spans="1:9" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="3">
-        <v>6</v>
-      </c>
-      <c r="B7" s="3">
-        <v>35.200000000000003</v>
-      </c>
-      <c r="C7" s="3">
-        <f t="shared" si="1"/>
-        <v>34.119022556390981</v>
-      </c>
-      <c r="D7" s="15">
-        <f>(C7-$B$24)^2</f>
-        <v>499.11927313584704</v>
-      </c>
-      <c r="E7" s="3">
-        <f t="shared" si="0"/>
-        <v>1.0809774436090223</v>
-      </c>
-      <c r="F7" s="12"/>
-      <c r="G7" s="3">
-        <v>5</v>
-      </c>
-      <c r="H7" s="3">
-        <f>SUMPRODUCT(B7:B21 - $B$24, B2:B16 - $B$24) / ($B$30 - G7)</f>
-        <v>305.64693333333332</v>
-      </c>
-      <c r="I7" s="3">
-        <f>SUMPRODUCT(E7:E21 - $E$22, E2:E16 - $E$22) / ($B$30 - G7)</f>
-        <v>-0.31912967192417235</v>
-      </c>
+    <row r="36" spans="1:19" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="11"/>
+      <c r="B36" s="12"/>
+      <c r="D36" s="8"/>
+      <c r="F36" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="G36" s="30"/>
+      <c r="H36" s="30"/>
+      <c r="I36" s="30"/>
+      <c r="J36" s="30"/>
+      <c r="K36" s="31"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="3">
-        <v>7</v>
-      </c>
-      <c r="B8" s="3">
-        <v>38.4</v>
-      </c>
-      <c r="C8" s="3">
-        <f t="shared" si="1"/>
-        <v>39.083684210526314</v>
-      </c>
-      <c r="D8" s="15">
-        <f>(C8-$B$24)^2</f>
-        <v>301.93635041551255</v>
-      </c>
-      <c r="E8" s="3">
-        <f t="shared" si="0"/>
-        <v>-0.68368421052631589</v>
-      </c>
-      <c r="F8" s="12"/>
-      <c r="G8" s="3">
-        <v>6</v>
-      </c>
-      <c r="H8" s="3">
-        <f>SUMPRODUCT(B8:B21 - $B$24, B2:B15 - $B$24) / ($B$30 - G8)</f>
-        <v>181.4726</v>
-      </c>
-      <c r="I8" s="3">
-        <f>SUMPRODUCT(E8:E21 - $E$22, E2:E15 - $E$22) / ($B$30 - G8)</f>
-        <v>5.434444570071785E-2</v>
-      </c>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A37" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="B37" s="40"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="32"/>
+      <c r="G37" s="33"/>
+      <c r="H37" s="33"/>
+      <c r="I37" s="33"/>
+      <c r="J37" s="33"/>
+      <c r="K37" s="34"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="3">
-        <v>8</v>
-      </c>
-      <c r="B9" s="3">
-        <v>44.8</v>
-      </c>
-      <c r="C9" s="3">
-        <f t="shared" si="1"/>
-        <v>44.048345864661655</v>
-      </c>
-      <c r="D9" s="15">
-        <f>(C9-$B$24)^2</f>
-        <v>154.04915837526144</v>
-      </c>
-      <c r="E9" s="3">
-        <f t="shared" si="0"/>
-        <v>0.75165413533834169</v>
-      </c>
-      <c r="F9" s="12"/>
-      <c r="G9" s="3">
-        <v>7</v>
-      </c>
-      <c r="H9" s="3">
-        <f>SUMPRODUCT(B9:B21 - $B$24, B2:B14 - $B$24) / ($B$30 - G9)</f>
-        <v>48.861138461538452</v>
-      </c>
-      <c r="I9" s="3">
-        <f>SUMPRODUCT(E9:E21 - $E$22, E2:E14 - $E$22) / ($B$30 - G9)</f>
-        <v>3.4093090012475083E-2</v>
-      </c>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A38" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="32"/>
+      <c r="G38" s="33"/>
+      <c r="H38" s="33"/>
+      <c r="I38" s="33"/>
+      <c r="J38" s="33"/>
+      <c r="K38" s="34"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="3">
-        <v>9</v>
-      </c>
-      <c r="B10" s="3">
-        <v>47.8</v>
-      </c>
-      <c r="C10" s="3">
-        <f t="shared" si="1"/>
-        <v>49.013007518796996</v>
-      </c>
-      <c r="D10" s="15">
-        <f>(C10-$B$24)^2</f>
-        <v>55.457697015094077</v>
-      </c>
-      <c r="E10" s="3">
-        <f t="shared" si="0"/>
-        <v>-1.2130075187969993</v>
-      </c>
-      <c r="F10" s="12"/>
-      <c r="G10" s="3">
-        <v>8</v>
-      </c>
-      <c r="H10" s="3">
-        <f>SUMPRODUCT(B10:B21 - $B$24, B2:B13 - $B$24) / ($B$30 - G10)</f>
-        <v>-89.970899999999986</v>
-      </c>
-      <c r="I10" s="3">
-        <f>SUMPRODUCT(E10:E21 - $E$22, E2:E13 - $E$22) / ($B$30 - G10)</f>
-        <v>0.10940174119509133</v>
-      </c>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A39" s="3">
+        <f t="array" ref="A39:B39">LINEST(B6:B25)</f>
+        <v>4.9646616541353383</v>
+      </c>
+      <c r="B39" s="3">
+        <v>4.3310526315789488</v>
+      </c>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="32"/>
+      <c r="G39" s="33"/>
+      <c r="H39" s="33"/>
+      <c r="I39" s="33"/>
+      <c r="J39" s="33"/>
+      <c r="K39" s="34"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="3">
-        <v>10</v>
-      </c>
-      <c r="B11" s="3">
-        <v>53.5</v>
-      </c>
-      <c r="C11" s="3">
-        <f t="shared" si="1"/>
-        <v>53.97766917293233</v>
-      </c>
-      <c r="D11" s="15">
-        <f>(C11-$B$24)^2</f>
-        <v>6.1619663350104652</v>
-      </c>
-      <c r="E11" s="3">
-        <f t="shared" si="0"/>
-        <v>-0.47766917293233035</v>
-      </c>
-      <c r="F11" s="12"/>
-      <c r="G11" s="3">
-        <v>9</v>
-      </c>
-      <c r="H11" s="3">
-        <f>SUMPRODUCT(B11:B21 - $B$24, B2:B12 - $B$24) / ($B$30 - G11)</f>
-        <v>-251.70349090909093</v>
-      </c>
-      <c r="I11" s="3">
-        <f>SUMPRODUCT(E11:E21 - $E$22, E2:E12 - $E$22) / ($B$30 - G11)</f>
-        <v>-0.45351939366529853</v>
-      </c>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="D40" s="8"/>
+      <c r="F40" s="32"/>
+      <c r="G40" s="33"/>
+      <c r="H40" s="33"/>
+      <c r="I40" s="33"/>
+      <c r="J40" s="33"/>
+      <c r="K40" s="34"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="3">
-        <v>11</v>
-      </c>
-      <c r="B12" s="3">
-        <v>57.4</v>
-      </c>
-      <c r="C12" s="3">
-        <f t="shared" si="1"/>
-        <v>58.942330827067671</v>
-      </c>
-      <c r="D12" s="15">
-        <f>(C12-$B$24)^2</f>
-        <v>6.1619663350104652</v>
-      </c>
-      <c r="E12" s="3">
-        <f t="shared" si="0"/>
-        <v>-1.5423308270676728</v>
-      </c>
-      <c r="F12" s="12"/>
-      <c r="G12" s="3">
-        <v>10</v>
-      </c>
-      <c r="H12" s="3">
-        <f>SUMPRODUCT(B12:B21 - $B$24, B2:B11 - $B$24) / ($B$30 - G12)</f>
-        <v>-405.61359999999996</v>
-      </c>
-      <c r="I12" s="3">
-        <f>SUMPRODUCT(E12:E21 - $E$22, E2:E11 - $E$22) / ($B$30 - G12)</f>
-        <v>-4.0870761490187403E-2</v>
-      </c>
+    <row r="41" spans="1:19" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="B41" s="42"/>
+      <c r="C41" s="42"/>
+      <c r="D41" s="42"/>
+      <c r="F41" s="32"/>
+      <c r="G41" s="33"/>
+      <c r="H41" s="33"/>
+      <c r="I41" s="33"/>
+      <c r="J41" s="33"/>
+      <c r="K41" s="34"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="3">
-        <v>12</v>
-      </c>
-      <c r="B13" s="3">
-        <v>65.099999999999994</v>
-      </c>
-      <c r="C13" s="3">
-        <f t="shared" si="1"/>
-        <v>63.906992481203012</v>
-      </c>
-      <c r="D13" s="15">
-        <f>(C13-$B$24)^2</f>
-        <v>55.457697015094183</v>
-      </c>
-      <c r="E13" s="3">
-        <f t="shared" si="0"/>
-        <v>1.193007518796982</v>
-      </c>
-      <c r="F13" s="12"/>
+    <row r="42" spans="1:19" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A42" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="B42" s="41"/>
+      <c r="C42" s="41"/>
+      <c r="D42" s="3">
+        <f>SUM(D6:D25)/B34</f>
+        <v>819.54152255639087</v>
+      </c>
+      <c r="F42" s="32"/>
+      <c r="G42" s="33"/>
+      <c r="H42" s="33"/>
+      <c r="I42" s="33"/>
+      <c r="J42" s="33"/>
+      <c r="K42" s="34"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="3">
-        <v>13</v>
-      </c>
-      <c r="B14" s="3">
-        <v>68.8</v>
-      </c>
-      <c r="C14" s="3">
-        <f t="shared" si="1"/>
-        <v>68.87165413533836</v>
-      </c>
-      <c r="D14" s="15">
-        <f>(C14-$B$24)^2</f>
-        <v>154.04915837526181</v>
-      </c>
-      <c r="E14" s="3">
-        <f t="shared" si="0"/>
-        <v>-7.165413533836329E-2</v>
-      </c>
-      <c r="F14" s="12"/>
+    <row r="43" spans="1:19" ht="16.8" x14ac:dyDescent="0.35">
+      <c r="A43" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="B43" s="38"/>
+      <c r="C43" s="38"/>
+      <c r="D43" s="3">
+        <f>D42/B29</f>
+        <v>0.99876683535330069</v>
+      </c>
+      <c r="F43" s="35"/>
+      <c r="G43" s="36"/>
+      <c r="H43" s="36"/>
+      <c r="I43" s="36"/>
+      <c r="J43" s="36"/>
+      <c r="K43" s="37"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="3">
-        <v>14</v>
-      </c>
-      <c r="B15" s="3">
-        <v>72.599999999999994</v>
-      </c>
-      <c r="C15" s="3">
-        <f t="shared" si="1"/>
-        <v>73.836315789473673</v>
-      </c>
-      <c r="D15" s="15">
-        <f>(C15-$B$24)^2</f>
-        <v>301.93635041551204</v>
-      </c>
-      <c r="E15" s="3">
-        <f t="shared" si="0"/>
-        <v>-1.2363157894736787</v>
-      </c>
-      <c r="F15" s="12"/>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="D44" s="8"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="3">
-        <v>15</v>
-      </c>
-      <c r="B16" s="3">
-        <v>79.2</v>
-      </c>
-      <c r="C16" s="3">
-        <f t="shared" si="1"/>
-        <v>78.800977443609014</v>
-      </c>
-      <c r="D16" s="15">
-        <f>(C16-$B$24)^2</f>
-        <v>499.1192731358467</v>
-      </c>
-      <c r="E16" s="3">
-        <f t="shared" si="0"/>
-        <v>0.39902255639098883</v>
-      </c>
-      <c r="F16" s="12"/>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="D45" s="8"/>
+      <c r="I45" s="20"/>
+      <c r="J45" s="21"/>
+      <c r="K45" s="21"/>
+      <c r="L45" s="21"/>
+      <c r="M45" s="21"/>
+      <c r="N45" s="21"/>
+      <c r="O45" s="21"/>
+      <c r="P45" s="21"/>
+      <c r="Q45" s="21"/>
+      <c r="R45" s="21"/>
+      <c r="S45" s="22"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="3">
-        <v>16</v>
-      </c>
-      <c r="B17" s="3">
-        <v>82.4</v>
-      </c>
-      <c r="C17" s="3">
-        <f t="shared" si="1"/>
-        <v>83.765639097744355</v>
-      </c>
-      <c r="D17" s="15">
-        <f>(C17-$B$24)^2</f>
-        <v>745.59792653626516</v>
-      </c>
-      <c r="E17" s="3">
-        <f t="shared" si="0"/>
-        <v>-1.3656390977443493</v>
-      </c>
-      <c r="F17" s="12"/>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="D46" s="8"/>
+      <c r="I46" s="23"/>
+      <c r="J46" s="24"/>
+      <c r="K46" s="24"/>
+      <c r="L46" s="24"/>
+      <c r="M46" s="24"/>
+      <c r="N46" s="24"/>
+      <c r="O46" s="24"/>
+      <c r="P46" s="24"/>
+      <c r="Q46" s="24"/>
+      <c r="R46" s="24"/>
+      <c r="S46" s="25"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="3">
-        <v>17</v>
-      </c>
-      <c r="B18" s="3">
-        <v>88.6</v>
-      </c>
-      <c r="C18" s="3">
-        <f t="shared" si="1"/>
-        <v>88.730300751879696</v>
-      </c>
-      <c r="D18" s="15">
-        <f>(C18-$B$24)^2</f>
-        <v>1041.3723106167672</v>
-      </c>
-      <c r="E18" s="3">
-        <f t="shared" si="0"/>
-        <v>-0.13030075187970169</v>
-      </c>
-      <c r="F18" s="12"/>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="D47" s="8"/>
+      <c r="I47" s="23"/>
+      <c r="J47" s="24"/>
+      <c r="K47" s="24"/>
+      <c r="L47" s="24"/>
+      <c r="M47" s="24"/>
+      <c r="N47" s="24"/>
+      <c r="O47" s="24"/>
+      <c r="P47" s="24"/>
+      <c r="Q47" s="24"/>
+      <c r="R47" s="24"/>
+      <c r="S47" s="25"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="3">
-        <v>18</v>
-      </c>
-      <c r="B19" s="3">
-        <v>93.7</v>
-      </c>
-      <c r="C19" s="3">
-        <f t="shared" si="1"/>
-        <v>93.694962406015037</v>
-      </c>
-      <c r="D19" s="15">
-        <f>(C19-$B$24)^2</f>
-        <v>1386.4424253773529</v>
-      </c>
-      <c r="E19" s="3">
-        <f t="shared" si="0"/>
-        <v>5.037593984965838E-3</v>
-      </c>
-      <c r="F19" s="12"/>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="D48" s="8"/>
+      <c r="I48" s="23"/>
+      <c r="J48" s="24"/>
+      <c r="K48" s="24"/>
+      <c r="L48" s="24"/>
+      <c r="M48" s="24"/>
+      <c r="N48" s="24"/>
+      <c r="O48" s="24"/>
+      <c r="P48" s="24"/>
+      <c r="Q48" s="24"/>
+      <c r="R48" s="24"/>
+      <c r="S48" s="25"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="3">
-        <v>19</v>
-      </c>
-      <c r="B20" s="3">
-        <v>99.5</v>
-      </c>
-      <c r="C20" s="3">
-        <f t="shared" si="1"/>
-        <v>98.659624060150378</v>
-      </c>
-      <c r="D20" s="15">
-        <f>(C20-$B$24)^2</f>
-        <v>1780.8082708180225</v>
-      </c>
-      <c r="E20" s="3">
-        <f t="shared" si="0"/>
-        <v>0.840375939849622</v>
-      </c>
-      <c r="F20" s="12"/>
+    <row r="49" spans="4:19" x14ac:dyDescent="0.3">
+      <c r="D49" s="8"/>
+      <c r="I49" s="23"/>
+      <c r="J49" s="24"/>
+      <c r="K49" s="24"/>
+      <c r="L49" s="24"/>
+      <c r="M49" s="24"/>
+      <c r="N49" s="24"/>
+      <c r="O49" s="24"/>
+      <c r="P49" s="24"/>
+      <c r="Q49" s="24"/>
+      <c r="R49" s="24"/>
+      <c r="S49" s="25"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="3">
-        <v>20</v>
-      </c>
-      <c r="B21" s="3">
-        <v>104.8</v>
-      </c>
-      <c r="C21" s="3">
-        <f t="shared" si="1"/>
-        <v>103.62428571428572</v>
-      </c>
-      <c r="D21" s="15">
-        <f>(C21-$B$24)^2</f>
-        <v>2224.4698469387758</v>
-      </c>
-      <c r="E21" s="3">
-        <f t="shared" si="0"/>
-        <v>1.1757142857142782</v>
-      </c>
-      <c r="F21" s="12"/>
+    <row r="50" spans="4:19" x14ac:dyDescent="0.3">
+      <c r="D50" s="8"/>
+      <c r="I50" s="23"/>
+      <c r="J50" s="24"/>
+      <c r="K50" s="24"/>
+      <c r="L50" s="24"/>
+      <c r="M50" s="24"/>
+      <c r="N50" s="24"/>
+      <c r="O50" s="24"/>
+      <c r="P50" s="24"/>
+      <c r="Q50" s="24"/>
+      <c r="R50" s="24"/>
+      <c r="S50" s="25"/>
     </row>
-    <row r="22" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D22" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="E22" s="18">
-        <f>SUM(E2:E21)/B30</f>
-        <v>-1.5987211554602255E-15</v>
-      </c>
+    <row r="51" spans="4:19" x14ac:dyDescent="0.3">
+      <c r="I51" s="23"/>
+      <c r="J51" s="24"/>
+      <c r="K51" s="24"/>
+      <c r="L51" s="24"/>
+      <c r="M51" s="24"/>
+      <c r="N51" s="24"/>
+      <c r="O51" s="24"/>
+      <c r="P51" s="24"/>
+      <c r="Q51" s="24"/>
+      <c r="R51" s="24"/>
+      <c r="S51" s="25"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B23" s="7"/>
-      <c r="D23" s="12"/>
+    <row r="52" spans="4:19" x14ac:dyDescent="0.3">
+      <c r="I52" s="23"/>
+      <c r="J52" s="24"/>
+      <c r="K52" s="24"/>
+      <c r="L52" s="24"/>
+      <c r="M52" s="24"/>
+      <c r="N52" s="24"/>
+      <c r="O52" s="24"/>
+      <c r="P52" s="24"/>
+      <c r="Q52" s="24"/>
+      <c r="R52" s="24"/>
+      <c r="S52" s="25"/>
     </row>
-    <row r="24" spans="1:6" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B24" s="6">
-        <v>56.46</v>
-      </c>
-      <c r="D24" s="12"/>
+    <row r="53" spans="4:19" x14ac:dyDescent="0.3">
+      <c r="I53" s="23"/>
+      <c r="J53" s="24"/>
+      <c r="K53" s="24"/>
+      <c r="L53" s="24"/>
+      <c r="M53" s="24"/>
+      <c r="N53" s="24"/>
+      <c r="O53" s="24"/>
+      <c r="P53" s="24"/>
+      <c r="Q53" s="24"/>
+      <c r="R53" s="24"/>
+      <c r="S53" s="25"/>
     </row>
-    <row r="25" spans="1:6" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B25" s="6">
-        <f>B26^2</f>
-        <v>820.55339999999978</v>
-      </c>
-      <c r="D25" s="12"/>
+    <row r="54" spans="4:19" x14ac:dyDescent="0.3">
+      <c r="I54" s="23"/>
+      <c r="J54" s="24"/>
+      <c r="K54" s="24"/>
+      <c r="L54" s="24"/>
+      <c r="M54" s="24"/>
+      <c r="N54" s="24"/>
+      <c r="O54" s="24"/>
+      <c r="P54" s="24"/>
+      <c r="Q54" s="24"/>
+      <c r="R54" s="24"/>
+      <c r="S54" s="25"/>
     </row>
-    <row r="26" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B26" s="6">
-        <f>_xlfn.STDEV.P(B2:B21)</f>
-        <v>28.64530327994451</v>
-      </c>
-      <c r="D26" s="12"/>
+    <row r="55" spans="4:19" x14ac:dyDescent="0.3">
+      <c r="I55" s="23"/>
+      <c r="J55" s="24"/>
+      <c r="K55" s="24"/>
+      <c r="L55" s="24"/>
+      <c r="M55" s="24"/>
+      <c r="N55" s="24"/>
+      <c r="O55" s="24"/>
+      <c r="P55" s="24"/>
+      <c r="Q55" s="24"/>
+      <c r="R55" s="24"/>
+      <c r="S55" s="25"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B27" s="6">
-        <v>8.1</v>
-      </c>
-      <c r="D27" s="12"/>
+    <row r="56" spans="4:19" x14ac:dyDescent="0.3">
+      <c r="I56" s="23"/>
+      <c r="J56" s="24"/>
+      <c r="K56" s="24"/>
+      <c r="L56" s="24"/>
+      <c r="M56" s="24"/>
+      <c r="N56" s="24"/>
+      <c r="O56" s="24"/>
+      <c r="P56" s="24"/>
+      <c r="Q56" s="24"/>
+      <c r="R56" s="24"/>
+      <c r="S56" s="25"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B28" s="6">
-        <v>104.8</v>
-      </c>
-      <c r="D28" s="12"/>
+    <row r="57" spans="4:19" x14ac:dyDescent="0.3">
+      <c r="I57" s="23"/>
+      <c r="J57" s="24"/>
+      <c r="K57" s="24"/>
+      <c r="L57" s="24"/>
+      <c r="M57" s="24"/>
+      <c r="N57" s="24"/>
+      <c r="O57" s="24"/>
+      <c r="P57" s="24"/>
+      <c r="Q57" s="24"/>
+      <c r="R57" s="24"/>
+      <c r="S57" s="25"/>
     </row>
-    <row r="29" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B29" s="6">
-        <f>B26/B24</f>
-        <v>0.50735570811095487</v>
-      </c>
-      <c r="D29" s="12"/>
+    <row r="58" spans="4:19" x14ac:dyDescent="0.3">
+      <c r="I58" s="23"/>
+      <c r="J58" s="24"/>
+      <c r="K58" s="24"/>
+      <c r="L58" s="24"/>
+      <c r="M58" s="24"/>
+      <c r="N58" s="24"/>
+      <c r="O58" s="24"/>
+      <c r="P58" s="24"/>
+      <c r="Q58" s="24"/>
+      <c r="R58" s="24"/>
+      <c r="S58" s="25"/>
     </row>
-    <row r="30" spans="1:6" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B30" s="6">
-        <v>20</v>
-      </c>
-      <c r="D30" s="12"/>
+    <row r="59" spans="4:19" x14ac:dyDescent="0.3">
+      <c r="I59" s="23"/>
+      <c r="J59" s="24"/>
+      <c r="K59" s="24"/>
+      <c r="L59" s="24"/>
+      <c r="M59" s="24"/>
+      <c r="N59" s="24"/>
+      <c r="O59" s="24"/>
+      <c r="P59" s="24"/>
+      <c r="Q59" s="24"/>
+      <c r="R59" s="24"/>
+      <c r="S59" s="25"/>
     </row>
-    <row r="31" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="16"/>
-      <c r="B31" s="17"/>
-      <c r="D31" s="12"/>
+    <row r="60" spans="4:19" x14ac:dyDescent="0.3">
+      <c r="I60" s="26"/>
+      <c r="J60" s="27"/>
+      <c r="K60" s="27"/>
+      <c r="L60" s="27"/>
+      <c r="M60" s="27"/>
+      <c r="N60" s="27"/>
+      <c r="O60" s="27"/>
+      <c r="P60" s="27"/>
+      <c r="Q60" s="27"/>
+      <c r="R60" s="27"/>
+      <c r="S60" s="28"/>
     </row>
-    <row r="32" spans="1:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="16"/>
-      <c r="B32" s="17"/>
-      <c r="D32" s="12"/>
+    <row r="61" spans="4:19" x14ac:dyDescent="0.3">
+      <c r="I61" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="J61" s="30"/>
+      <c r="K61" s="30"/>
+      <c r="L61" s="30"/>
+      <c r="M61" s="30"/>
+      <c r="N61" s="30"/>
+      <c r="O61" s="30"/>
+      <c r="P61" s="30"/>
+      <c r="Q61" s="30"/>
+      <c r="R61" s="30"/>
+      <c r="S61" s="31"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B33" s="10"/>
-      <c r="C33" s="11"/>
-      <c r="D33" s="12"/>
-      <c r="E33" s="11"/>
-      <c r="F33" s="11"/>
+    <row r="62" spans="4:19" x14ac:dyDescent="0.3">
+      <c r="I62" s="32"/>
+      <c r="J62" s="33"/>
+      <c r="K62" s="33"/>
+      <c r="L62" s="33"/>
+      <c r="M62" s="33"/>
+      <c r="N62" s="33"/>
+      <c r="O62" s="33"/>
+      <c r="P62" s="33"/>
+      <c r="Q62" s="33"/>
+      <c r="R62" s="33"/>
+      <c r="S62" s="34"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C34" s="12"/>
-      <c r="D34" s="12"/>
-      <c r="E34" s="12"/>
-      <c r="F34" s="12"/>
+    <row r="63" spans="4:19" x14ac:dyDescent="0.3">
+      <c r="I63" s="32"/>
+      <c r="J63" s="33"/>
+      <c r="K63" s="33"/>
+      <c r="L63" s="33"/>
+      <c r="M63" s="33"/>
+      <c r="N63" s="33"/>
+      <c r="O63" s="33"/>
+      <c r="P63" s="33"/>
+      <c r="Q63" s="33"/>
+      <c r="R63" s="33"/>
+      <c r="S63" s="34"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" s="3">
-        <f t="array" ref="A35:B35">LINEST(B2:B21)</f>
-        <v>4.9646616541353383</v>
-      </c>
-      <c r="B35" s="3">
-        <v>4.3310526315789488</v>
-      </c>
-      <c r="C35" s="12"/>
-      <c r="D35" s="12"/>
-      <c r="E35" s="12"/>
-      <c r="F35" s="12"/>
+    <row r="64" spans="4:19" x14ac:dyDescent="0.3">
+      <c r="I64" s="32"/>
+      <c r="J64" s="33"/>
+      <c r="K64" s="33"/>
+      <c r="L64" s="33"/>
+      <c r="M64" s="33"/>
+      <c r="N64" s="33"/>
+      <c r="O64" s="33"/>
+      <c r="P64" s="33"/>
+      <c r="Q64" s="33"/>
+      <c r="R64" s="33"/>
+      <c r="S64" s="34"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D36" s="12"/>
+    <row r="65" spans="9:19" x14ac:dyDescent="0.3">
+      <c r="I65" s="32"/>
+      <c r="J65" s="33"/>
+      <c r="K65" s="33"/>
+      <c r="L65" s="33"/>
+      <c r="M65" s="33"/>
+      <c r="N65" s="33"/>
+      <c r="O65" s="33"/>
+      <c r="P65" s="33"/>
+      <c r="Q65" s="33"/>
+      <c r="R65" s="33"/>
+      <c r="S65" s="34"/>
     </row>
-    <row r="37" spans="1:6" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B37" s="7"/>
-      <c r="C37" s="7"/>
-      <c r="D37" s="7"/>
+    <row r="66" spans="9:19" x14ac:dyDescent="0.3">
+      <c r="I66" s="32"/>
+      <c r="J66" s="33"/>
+      <c r="K66" s="33"/>
+      <c r="L66" s="33"/>
+      <c r="M66" s="33"/>
+      <c r="N66" s="33"/>
+      <c r="O66" s="33"/>
+      <c r="P66" s="33"/>
+      <c r="Q66" s="33"/>
+      <c r="R66" s="33"/>
+      <c r="S66" s="34"/>
     </row>
-    <row r="38" spans="1:6" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A38" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B38" s="14"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="3">
-        <f>SUM(D2:D21)/B30</f>
-        <v>819.54152255639087</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="16.8" x14ac:dyDescent="0.35">
-      <c r="A39" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B39" s="8"/>
-      <c r="C39" s="8"/>
-      <c r="D39" s="3">
-        <f>D38/B25</f>
-        <v>0.99876683535330069</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D40" s="12"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D41" s="12"/>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D42" s="12"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D43" s="12"/>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D44" s="12"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D45" s="12"/>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D46" s="12"/>
+    <row r="67" spans="9:19" x14ac:dyDescent="0.3">
+      <c r="I67" s="35"/>
+      <c r="J67" s="36"/>
+      <c r="K67" s="36"/>
+      <c r="L67" s="36"/>
+      <c r="M67" s="36"/>
+      <c r="N67" s="36"/>
+      <c r="O67" s="36"/>
+      <c r="P67" s="36"/>
+      <c r="Q67" s="36"/>
+      <c r="R67" s="36"/>
+      <c r="S67" s="37"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A39:C39"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A38:C38"/>
-    <mergeCell ref="A37:D37"/>
+  <mergeCells count="14">
+    <mergeCell ref="A43:C43"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="A41:D41"/>
+    <mergeCell ref="G17:K25"/>
+    <mergeCell ref="F36:K43"/>
+    <mergeCell ref="E27:G34"/>
+    <mergeCell ref="I45:S60"/>
+    <mergeCell ref="I61:S67"/>
+    <mergeCell ref="L27:N34"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="P5:S5"/>
+    <mergeCell ref="M8:S11"/>
+    <mergeCell ref="O6:O7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
